--- a/tabular/genus/chaphama-refseqs-side-data.xlsx
+++ b/tabular/genus/chaphama-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147160A4-3007-F44B-8FD0-DC5F2EDDC192}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569A5004-A543-0947-A6A0-B02753D24A20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19180" yWindow="9600" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
+    <workbookView xWindow="7660" yWindow="6200" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="56">
   <si>
     <t>accession-ID</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Myotis_ChPV</t>
   </si>
   <si>
-    <t>Protobothrops_ChPV</t>
-  </si>
-  <si>
     <t>Desmodus rotundus parvovirus</t>
   </si>
   <si>
@@ -171,6 +168,39 @@
   </si>
   <si>
     <t>Protobothrops</t>
+  </si>
+  <si>
+    <t>CChPV</t>
+  </si>
+  <si>
+    <t>Cachavirus</t>
+  </si>
+  <si>
+    <t>RChPV</t>
+  </si>
+  <si>
+    <t>CKPV</t>
+  </si>
+  <si>
+    <t>UrChPV</t>
+  </si>
+  <si>
+    <t>DrChPv</t>
+  </si>
+  <si>
+    <t>MH670587</t>
+  </si>
+  <si>
+    <t>MkPV</t>
+  </si>
+  <si>
+    <t>Mouse kidney parvoviruses</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>Snake_ChPV</t>
   </si>
 </sst>
 </file>
@@ -215,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +264,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -255,7 +297,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5CE6FC-94FB-E64A-8308-5869E9818659}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,7 +626,7 @@
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="25.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -634,7 +678,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -643,43 +687,44 @@
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
+      <c r="A3" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
@@ -687,43 +732,44 @@
       <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
+      <c r="A4" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -731,43 +777,44 @@
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
+      <c r="A5" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -775,43 +822,44 @@
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
+      <c r="A6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
@@ -819,43 +867,44 @@
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
+      <c r="A7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -863,43 +912,44 @@
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
+      <c r="A8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -907,43 +957,44 @@
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>28</v>
+      <c r="A9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>16</v>
@@ -951,43 +1002,44 @@
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" t="s">
-        <v>13</v>
-      </c>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
+      <c r="A10" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
@@ -995,43 +1047,44 @@
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" t="s">
-        <v>13</v>
-      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
+      <c r="A11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1039,43 +1092,44 @@
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" t="s">
-        <v>13</v>
-      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
+      <c r="A12" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -1083,62 +1137,85 @@
       <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>13</v>
-      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tabular/genus/chaphama-refseqs-side-data.xlsx
+++ b/tabular/genus/chaphama-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569A5004-A543-0947-A6A0-B02753D24A20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4F4253-600E-4148-81AF-723082A64B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7660" yWindow="6200" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="56">
   <si>
-    <t>accession-ID</t>
-  </si>
-  <si>
     <t>virus_name</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Snake_ChPV</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D9" sqref="A1:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,588 +632,588 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O13" s="6"/>
     </row>

--- a/tabular/genus/chaphama-refseqs-side-data.xlsx
+++ b/tabular/genus/chaphama-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/genus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4F4253-600E-4148-81AF-723082A64B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDC9028-EF59-1F45-896F-765FC5209893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7660" yWindow="6200" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -155,18 +155,6 @@
     <t>Canis familiaris</t>
   </si>
   <si>
-    <t>Serinus</t>
-  </si>
-  <si>
-    <t>Mesitornis</t>
-  </si>
-  <si>
-    <t>Myotis</t>
-  </si>
-  <si>
-    <t>Protobothrops</t>
-  </si>
-  <si>
     <t>CChPV</t>
   </si>
   <si>
@@ -201,6 +189,18 @@
   </si>
   <si>
     <t>sequenceID</t>
+  </si>
+  <si>
+    <t>Serinus canaria</t>
+  </si>
+  <si>
+    <t>Myotis davidii</t>
+  </si>
+  <si>
+    <t>Protobothrops mucrosquamatus</t>
+  </si>
+  <si>
+    <t>Mesitornis unicolor</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:O13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,7 +632,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -688,7 +688,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>18</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -733,16 +733,16 @@
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>12</v>
@@ -778,7 +778,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>33</v>
@@ -823,7 +823,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>30</v>
@@ -868,7 +868,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>31</v>
@@ -913,7 +913,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>32</v>
@@ -958,7 +958,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>29</v>
@@ -1057,7 +1057,7 @@
         <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>12</v>
@@ -1102,7 +1102,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>12</v>
@@ -1147,7 +1147,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>12</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>15</v>
@@ -1183,16 +1183,16 @@
         <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>12</v>

--- a/tabular/genus/chaphama-refseqs-side-data.xlsx
+++ b/tabular/genus/chaphama-refseqs-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNA/Parvovirus-GLUE/tabular/genus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDC9028-EF59-1F45-896F-765FC5209893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF6BCE7-5621-B142-8931-73A60464F233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7660" yWindow="6200" windowWidth="28040" windowHeight="17440" xr2:uid="{469403FE-80B6-3840-B15B-8B62EF5C2974}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="64">
   <si>
     <t>virus_name</t>
   </si>
@@ -201,6 +201,30 @@
   </si>
   <si>
     <t>Mesitornis unicolor</t>
+  </si>
+  <si>
+    <t>MN162688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IcthPV </t>
+  </si>
+  <si>
+    <t>Ichthyic parvovirus isolate HMU-HKU</t>
+  </si>
+  <si>
+    <t>Tilapia</t>
+  </si>
+  <si>
+    <t>MN996276</t>
+  </si>
+  <si>
+    <t>Lizard parvovirus 1</t>
+  </si>
+  <si>
+    <t>BtlPV</t>
+  </si>
+  <si>
+    <t>Tiliqua</t>
   </si>
 </sst>
 </file>
@@ -614,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5CE6FC-94FB-E64A-8308-5869E9818659}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1217,6 +1241,95 @@
       </c>
       <c r="O13" s="6"/>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
